--- a/LMH_WO_Performance_Detail.xlsx
+++ b/LMH_WO_Performance_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshakely\source\repos\LMH Work Order Performance Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D695A65-1EC5-4D53-A93C-FFD49E55D7F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346F457-175A-4517-90B8-83CB28FF3B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{978B0946-0685-47E1-9F0E-462C81F1B9D0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Work Order Performance Detail</t>
   </si>
@@ -220,13 +220,16 @@
   </si>
   <si>
     <t>Emergency &amp;</t>
+  </si>
+  <si>
+    <t>&amp;=Detail.CombineGoal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +284,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,12 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,12 +380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +397,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,37 +727,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D762880-3798-4032-BD61-CEA8B25928D6}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z13" activeCellId="1" sqref="W8 Z13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.42578125" style="3" customWidth="1"/>
     <col min="27" max="28" width="15.7109375" style="3" customWidth="1"/>
     <col min="29" max="29" width="77" style="3" customWidth="1"/>
@@ -756,361 +764,367 @@
     <col min="32" max="32" width="14.28515625" style="3" customWidth="1"/>
     <col min="33" max="33" width="14.5703125" style="3" customWidth="1"/>
     <col min="34" max="51" width="9.140625" style="3" customWidth="1"/>
-    <col min="52" max="55" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="15" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="15" t="s">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="15" t="s">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BA8" s="7" t="s">
+      <c r="W8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="BB8" s="6" t="s">
+      <c r="BB8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="BC8" s="6" t="s">
+      <c r="BC8" s="19" t="s">
         <v>48</v>
       </c>
     </row>

--- a/LMH_WO_Performance_Detail.xlsx
+++ b/LMH_WO_Performance_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshakely\source\repos\LMH Work Order Performance Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346F457-175A-4517-90B8-83CB28FF3B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4C138-5A5A-4DE8-AE69-4D83813F6B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{978B0946-0685-47E1-9F0E-462C81F1B9D0}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>&amp;=Detail.OutputType</t>
   </si>
   <si>
-    <t>&amp;=Detail.sstatus</t>
-  </si>
-  <si>
     <t>&amp;=Detail.pendingReason</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>&amp;=Detail.CombineGoal</t>
+  </si>
+  <si>
+    <t>&amp;=Detail.STATUS</t>
   </si>
 </sst>
 </file>
@@ -398,17 +398,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,7 +728,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,70 +772,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="6"/>
       <c r="H4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="11"/>
@@ -876,7 +876,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
@@ -962,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -997,13 +997,13 @@
         <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>25</v>
@@ -1039,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>7</v>
@@ -1062,25 +1062,25 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>41</v>
@@ -1092,7 +1092,7 @@
         <v>37</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>39</v>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>34</v>
@@ -1116,15 +1116,15 @@
         <v>44</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BB8" s="19" t="s">
+      <c r="BB8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="BC8" s="19" t="s">
+      <c r="BC8" s="17" t="s">
         <v>48</v>
       </c>
     </row>

--- a/LMH_WO_Performance_Detail.xlsx
+++ b/LMH_WO_Performance_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshakely\source\repos\LMH Work Order Performance Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4C138-5A5A-4DE8-AE69-4D83813F6B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C07D57-5F6B-4F33-9D40-0A3049E5BB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{978B0946-0685-47E1-9F0E-462C81F1B9D0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Work Order Performance Detail</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>On Time?</t>
   </si>
   <si>
-    <t>On Hold</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>&amp;=Detail.sCALLER</t>
   </si>
   <si>
-    <t>&amp;=Detail.pending</t>
-  </si>
-  <si>
     <t>&amp;=Detail.issue</t>
   </si>
   <si>
@@ -180,18 +171,12 @@
     <t>&amp;=Detail.pendingReason</t>
   </si>
   <si>
-    <t>Pending Reason</t>
-  </si>
-  <si>
     <t>WO Start</t>
   </si>
   <si>
     <t>Routine</t>
   </si>
   <si>
-    <t>&amp;=Detail.tstamp</t>
-  </si>
-  <si>
     <t>&amp;=Detail.DayOfCall</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>&amp;=&amp;=HYPERLINK(IF(BC8="SCREEN","javascript:DrillDown('../pages/WO.aspx?1=1&amp;Id="&amp;BB{r}&amp;"')",""),BB{r})</t>
   </si>
   <si>
-    <t>&amp;=Detail.RoutineGoal</t>
-  </si>
-  <si>
     <t>&amp;=Detail.EmergencyGoal</t>
   </si>
   <si>
@@ -223,6 +205,15 @@
   </si>
   <si>
     <t>&amp;=Detail.STATUS</t>
+  </si>
+  <si>
+    <t>&amp;=Detail.HistoryDate</t>
+  </si>
+  <si>
+    <t>Reason On Hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending Reason / </t>
   </si>
 </sst>
 </file>
@@ -727,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D762880-3798-4032-BD61-CEA8B25928D6}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +787,7 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -847,7 +838,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="6"/>
       <c r="H4" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="11"/>
@@ -876,7 +867,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
@@ -909,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -918,25 +909,25 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="J6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -953,93 +944,91 @@
         <v>6</v>
       </c>
       <c r="T6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="W6" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="W7" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>7</v>
@@ -1050,82 +1039,80 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="G8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="K8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="S8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="W8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="BC8" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/LMH_WO_Performance_Detail.xlsx
+++ b/LMH_WO_Performance_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshakely\source\repos\LMH Work Order Performance Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C07D57-5F6B-4F33-9D40-0A3049E5BB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223A24B-AD78-4CFD-B095-6AFDC6B07EDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{978B0946-0685-47E1-9F0E-462C81F1B9D0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$S$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$V$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Work Order Performance Detail</t>
   </si>
@@ -129,9 +129,6 @@
     <t>&amp;=Detail.dtCall</t>
   </si>
   <si>
-    <t>&amp;=Detail.dtcompl</t>
-  </si>
-  <si>
     <t>&amp;=Detail.uscode</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>&amp;=Detail.phone</t>
   </si>
   <si>
-    <t>&amp;=Detail.sCALLER</t>
-  </si>
-  <si>
-    <t>&amp;=Detail.issue</t>
-  </si>
-  <si>
     <t>&amp;=Detail.sfulldesc</t>
   </si>
   <si>
@@ -189,18 +180,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>&amp;=&amp;=HYPERLINK(IF(BC8="SCREEN","javascript:DrillDown('../pages/WO.aspx?1=1&amp;Id="&amp;BB{r}&amp;"')",""),BB{r})</t>
-  </si>
-  <si>
-    <t>&amp;=Detail.EmergencyGoal</t>
-  </si>
-  <si>
-    <t>Excel Calculation</t>
-  </si>
-  <si>
-    <t>Emergency &amp;</t>
-  </si>
-  <si>
     <t>&amp;=Detail.CombineGoal</t>
   </si>
   <si>
@@ -214,13 +193,25 @@
   </si>
   <si>
     <t xml:space="preserve">Pending Reason / </t>
+  </si>
+  <si>
+    <t>&amp;=Detail.scallername</t>
+  </si>
+  <si>
+    <t>&amp;=Detail.sbriefdesc</t>
+  </si>
+  <si>
+    <t>&amp;=Detail.CompletionDate</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=HYPERLINK(IF(AB8="SCREEN","javascript:DrillDown('../pages/WO.aspx?1=1&amp;Id="&amp;AA{r}&amp;"')",""),AA{r})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,59 +220,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF505050"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF002060"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF505050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,65 +350,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,404 +730,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D762880-3798-4032-BD61-CEA8B25928D6}">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" style="3" customWidth="1"/>
-    <col min="27" max="28" width="15.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="77" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="3" customWidth="1"/>
-    <col min="34" max="51" width="9.140625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="15.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="77" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1"/>
+    <col min="34" max="50" width="9.140625" style="2" customWidth="1"/>
+    <col min="51" max="52" width="9.140625" style="17" customWidth="1"/>
+    <col min="53" max="53" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="4"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+    </row>
+    <row r="4" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+    </row>
+    <row r="5" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+    </row>
+    <row r="6" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="21"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+    </row>
+    <row r="7" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="21"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+    </row>
+    <row r="8" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC8" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1122,6 +1272,6 @@
     <mergeCell ref="A3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="25" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LMH_WO_Performance_Detail.xlsx
+++ b/LMH_WO_Performance_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshakely\source\repos\LMH Work Order Performance Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223A24B-AD78-4CFD-B095-6AFDC6B07EDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E5593-7534-4041-9627-758B4F86F2F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{978B0946-0685-47E1-9F0E-462C81F1B9D0}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$7:$X$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$U$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Work Order Performance Detail</t>
   </si>
@@ -204,14 +205,29 @@
     <t>&amp;=Detail.CompletionDate</t>
   </si>
   <si>
-    <t>&amp;=&amp;=HYPERLINK(IF(AB8="SCREEN","javascript:DrillDown('../pages/WO.aspx?1=1&amp;Id="&amp;AA{r}&amp;"')",""),AA{r})</t>
+    <t>&amp;=&amp;=HYPERLINK(IF($X$8="SCREEN","javascript:DrillDown('../pages/WO.aspx?1=1&amp;Id="&amp;$W{r}&amp;"')",""),$W{r})</t>
+  </si>
+  <si>
+    <t>KeyColumn</t>
+  </si>
+  <si>
+    <t>Hwo</t>
+  </si>
+  <si>
+    <t>Output Type</t>
+  </si>
+  <si>
+    <t>&amp;=YSRFilterValues.DTCALLFROM</t>
+  </si>
+  <si>
+    <t>&amp;=YSRFilterValues.DTCALLTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,23 +241,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -291,6 +295,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,68 +363,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,548 +733,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D762880-3798-4032-BD61-CEA8B25928D6}">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="15.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="77" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1"/>
-    <col min="34" max="50" width="9.140625" style="2" customWidth="1"/>
-    <col min="51" max="52" width="9.140625" style="17" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="15.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="77" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" customWidth="1"/>
+    <col min="33" max="49" width="9.140625" style="1" customWidth="1"/>
+    <col min="50" max="51" width="9.140625" style="12" customWidth="1"/>
+    <col min="52" max="52" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:56" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+    </row>
+    <row r="2" spans="1:56" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="4"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-    </row>
-    <row r="4" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:56" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="str">
+        <f>"Call Date From: "&amp;TEXT($Y$3,"MM/DD/YYYY")&amp;" To: "&amp;TEXT($Z$3,"MM/DD/YYYY")</f>
+        <v>Call Date From: &amp;=YSRFilterValues.DTCALLFROM To: &amp;=YSRFilterValues.DTCALLTO</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+    </row>
+    <row r="4" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-    </row>
-    <row r="5" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+    </row>
+    <row r="5" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="R5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-    </row>
-    <row r="6" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+    </row>
+    <row r="6" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="R6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="S6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="T6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="U6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-    </row>
-    <row r="7" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="V6" s="15"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+    </row>
+    <row r="7" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="N7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="O7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="R7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="S7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="T7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="U7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="18"/>
-    </row>
-    <row r="8" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="V7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+    </row>
+    <row r="8" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="N8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="O8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="P8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="R8" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="S8" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="T8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="U8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="18" t="s">
+      <c r="V8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="19" t="s">
+      <c r="W8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="X8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="18"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="18"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="18"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
+      <c r="AB8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:X8" xr:uid="{D3FDCC3E-EB3B-48B2-9DF0-C5BCAFEEB525}"/>
   <mergeCells count="3">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>